--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -47,25 +47,7 @@
     <t>Vision Point</t>
   </si>
   <si>
-    <t xml:space="preserve">Châllénger </t>
-  </si>
-  <si>
     <t>SOLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portgas D Åce </t>
-  </si>
-  <si>
-    <t>LS DUFFY</t>
-  </si>
-  <si>
-    <t>BigFather Rengar</t>
-  </si>
-  <si>
-    <t>19 fotsiny adc</t>
-  </si>
-  <si>
-    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -414,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,34 +441,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.743415893791914</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>18485.6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04002778947189373</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" t="n">
-        <v>0.1242981404229443</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00490817992779415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -494,139 +474,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.516374128646075</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2265</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007052291106241539</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>147.4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1023365636679312</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006562597733466744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.47305785123967</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6303.6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01641873278236915</v>
-      </c>
-      <c r="E4" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0265564738292011</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.001763085399449036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9.941856090662251</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18698.8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04483485832705165</v>
-      </c>
-      <c r="E5" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>387</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2388622264459989</v>
-      </c>
-      <c r="J5" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.01057342292541073</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.739134966128192</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5256.4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02136529442417926</v>
-      </c>
-      <c r="E6" t="n">
-        <v>41</v>
-      </c>
-      <c r="F6" t="n">
-        <v>166.6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.08681605002605523</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.00198019801980198</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -47,7 +47,25 @@
     <t>Vision Point</t>
   </si>
   <si>
+    <t xml:space="preserve">Châllénger </t>
+  </si>
+  <si>
     <t>SOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portgas D Åce </t>
+  </si>
+  <si>
+    <t>LS DUFFY</t>
+  </si>
+  <si>
+    <t>BigFather Rengar</t>
+  </si>
+  <si>
+    <t>19 fotsiny adc</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -396,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +459,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8.743415893791914</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18485.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.04002778947189373</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>229.6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1242981404229443</v>
+      </c>
+      <c r="J2" t="n">
         <v>10</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.00490817992779415</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -474,32 +494,139 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.686192441575164</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4940.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.01922476690873743</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>215.4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.1187514263010913</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.003086678567510356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.47305785123967</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6303.6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01641873278236915</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0265564738292011</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.001763085399449036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.764476155827955</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13106.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01670651213554389</v>
+      </c>
+      <c r="E5" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.07387201437406728</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.00546712006355476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.739134966128192</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5256.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02136529442417926</v>
+      </c>
+      <c r="E6" t="n">
+        <v>41</v>
+      </c>
+      <c r="F6" t="n">
+        <v>166.6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.08681605002605523</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.00198019801980198</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -62,10 +62,10 @@
     <t>BigFather Rengar</t>
   </si>
   <si>
-    <t>19 fotsiny adc</t>
-  </si>
-  <si>
-    <t>NONE</t>
+    <t>MyDogaN</t>
+  </si>
+  <si>
+    <t>DUO_SUPPORT</t>
   </si>
 </sst>
 </file>
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.686192441575164</v>
+        <v>2.732152492161565</v>
       </c>
       <c r="C3" t="n">
-        <v>4940.8</v>
+        <v>4754.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01922476690873743</v>
+        <v>0.01058489950476475</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>18.2</v>
       </c>
       <c r="F3" t="n">
-        <v>215.4</v>
+        <v>286.2</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -515,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1187514263010913</v>
+        <v>0.1699525553653752</v>
       </c>
       <c r="J3" t="n">
-        <v>6.2</v>
+        <v>21.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003086678567510356</v>
+        <v>0.01215288164343084</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -529,19 +529,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.47305785123967</v>
+        <v>3.151435406698565</v>
       </c>
       <c r="C4" t="n">
-        <v>6303.6</v>
+        <v>5269.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01641873278236915</v>
+        <v>0.02009569377990431</v>
       </c>
       <c r="E4" t="n">
-        <v>29.8</v>
+        <v>33.6</v>
       </c>
       <c r="F4" t="n">
-        <v>48.2</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -550,13 +550,13 @@
         <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0265564738292011</v>
+        <v>0.06937799043062201</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001763085399449036</v>
+        <v>0.001555023923444976</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -564,19 +564,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.764476155827955</v>
+        <v>6.383743300662566</v>
       </c>
       <c r="C5" t="n">
-        <v>13106.2</v>
+        <v>12258.8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01670651213554389</v>
+        <v>0.04023672888935409</v>
       </c>
       <c r="E5" t="n">
-        <v>32.8</v>
+        <v>81</v>
       </c>
       <c r="F5" t="n">
-        <v>144.2</v>
+        <v>253.6</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -585,13 +585,13 @@
         <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07387201437406728</v>
+        <v>0.13711238076999</v>
       </c>
       <c r="J5" t="n">
-        <v>10.6</v>
+        <v>14.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00546712006355476</v>
+        <v>0.007707535390238893</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -599,19 +599,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.739134966128192</v>
+        <v>1.901710291787398</v>
       </c>
       <c r="C6" t="n">
-        <v>5256.4</v>
+        <v>4185.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02136529442417926</v>
+        <v>0.01349240180076153</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>29.6</v>
       </c>
       <c r="F6" t="n">
-        <v>166.6</v>
+        <v>204.4</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -620,13 +620,13 @@
         <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08681605002605523</v>
+        <v>0.09128055152368671</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>18.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00198019801980198</v>
+        <v>0.008167217339014521</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -459,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.743415893791914</v>
+        <v>3.203383214053351</v>
       </c>
       <c r="C2" t="n">
-        <v>18485.6</v>
+        <v>4923.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04002778947189373</v>
+        <v>0.01535458685751464</v>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>23.6</v>
       </c>
       <c r="F2" t="n">
-        <v>229.6</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -480,13 +480,13 @@
         <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1242981404229443</v>
+        <v>0.08197787898503578</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00490817992779415</v>
+        <v>0.0022121014964216</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.732152492161565</v>
+        <v>1.775319622012229</v>
       </c>
       <c r="C3" t="n">
-        <v>4754.8</v>
+        <v>3193.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01058489950476475</v>
+        <v>0.01634241245136187</v>
       </c>
       <c r="E3" t="n">
-        <v>18.2</v>
+        <v>29.4</v>
       </c>
       <c r="F3" t="n">
-        <v>286.2</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -515,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1699525553653752</v>
+        <v>0.02279043913285158</v>
       </c>
       <c r="J3" t="n">
-        <v>21.2</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01215288164343084</v>
+        <v>0.002445803224013341</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -529,19 +529,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.151435406698565</v>
+        <v>4.58653314427508</v>
       </c>
       <c r="C4" t="n">
-        <v>5269.2</v>
+        <v>8017.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02009569377990431</v>
+        <v>0.03247285569866215</v>
       </c>
       <c r="E4" t="n">
-        <v>33.6</v>
+        <v>56.2</v>
       </c>
       <c r="F4" t="n">
-        <v>116</v>
+        <v>187.4</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -550,13 +550,13 @@
         <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06937799043062201</v>
+        <v>0.1066721808657292</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001555023923444976</v>
+        <v>0.003094384707287933</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -564,19 +564,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.383743300662566</v>
+        <v>7.352278870698461</v>
       </c>
       <c r="C5" t="n">
-        <v>12258.8</v>
+        <v>13452.8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04023672888935409</v>
+        <v>0.03998785955724499</v>
       </c>
       <c r="E5" t="n">
-        <v>81</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>253.6</v>
+        <v>290.2</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -585,13 +585,13 @@
         <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>0.13711238076999</v>
+        <v>0.1626965738779845</v>
       </c>
       <c r="J5" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007707535390238893</v>
+        <v>0.008076131122476515</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -47,25 +47,25 @@
     <t>Vision Point</t>
   </si>
   <si>
-    <t xml:space="preserve">Châllénger </t>
+    <t>Jin Air Sherlock</t>
   </si>
   <si>
     <t>SOLO</t>
   </si>
   <si>
-    <t xml:space="preserve">Portgas D Åce </t>
-  </si>
-  <si>
-    <t>LS DUFFY</t>
-  </si>
-  <si>
-    <t>BigFather Rengar</t>
-  </si>
-  <si>
-    <t>MyDogaN</t>
-  </si>
-  <si>
-    <t>DUO_SUPPORT</t>
+    <t>beyazşarap</t>
+  </si>
+  <si>
+    <t>SquirtleSama</t>
+  </si>
+  <si>
+    <t>Felis</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>MURAT8991</t>
   </si>
 </sst>
 </file>
@@ -459,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.203383214053351</v>
+        <v>5.5796460763033</v>
       </c>
       <c r="C2" t="n">
-        <v>4923.6</v>
+        <v>8023.2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01535458685751464</v>
+        <v>0.02273389500018395</v>
       </c>
       <c r="E2" t="n">
-        <v>23.6</v>
+        <v>32.2</v>
       </c>
       <c r="F2" t="n">
-        <v>126</v>
+        <v>148.4</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -480,13 +480,13 @@
         <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08197787898503578</v>
+        <v>0.1021676906662742</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0022121014964216</v>
+        <v>0.005465950480114786</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.775319622012229</v>
+        <v>1.385786073223259</v>
       </c>
       <c r="C3" t="n">
-        <v>3193.8</v>
+        <v>1930.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01634241245136187</v>
+        <v>0.01837760229720029</v>
       </c>
       <c r="E3" t="n">
-        <v>29.4</v>
+        <v>25.6</v>
       </c>
       <c r="F3" t="n">
-        <v>41</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -515,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02279043913285158</v>
+        <v>0.06058865757358219</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002445803224013341</v>
+        <v>0.0007178750897343861</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -529,19 +529,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.58653314427508</v>
+        <v>2.763299466289665</v>
       </c>
       <c r="C4" t="n">
-        <v>8017.8</v>
+        <v>3713.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03247285569866215</v>
+        <v>0.03547674290133686</v>
       </c>
       <c r="E4" t="n">
-        <v>56.2</v>
+        <v>47</v>
       </c>
       <c r="F4" t="n">
-        <v>187.4</v>
+        <v>206.2</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -550,13 +550,13 @@
         <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1066721808657292</v>
+        <v>0.1575057666420894</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003094384707287933</v>
+        <v>0.001648030773462849</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -564,34 +564,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.352278870698461</v>
+        <v>5.62195035045776</v>
       </c>
       <c r="C5" t="n">
-        <v>13452.8</v>
+        <v>9004</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03998785955724499</v>
+        <v>0.04684623741123118</v>
       </c>
       <c r="E5" t="n">
-        <v>73.40000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2</v>
+        <v>299</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1626965738779845</v>
+        <v>0.1883767482497907</v>
       </c>
       <c r="J5" t="n">
-        <v>14.6</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008076131122476515</v>
+        <v>0.006285322641137803</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -599,34 +599,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.901710291787398</v>
+        <v>0.05357483317445186</v>
       </c>
       <c r="C6" t="n">
-        <v>4185.8</v>
+        <v>56.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01349240180076153</v>
+        <v>0.0005719733079122974</v>
       </c>
       <c r="E6" t="n">
-        <v>29.6</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
-        <v>204.4</v>
+        <v>21.4</v>
       </c>
       <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
       <c r="I6" t="n">
-        <v>0.09128055152368671</v>
+        <v>0.02040038131553861</v>
       </c>
       <c r="J6" t="n">
-        <v>18.6</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.008167217339014521</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -62,10 +62,10 @@
     <t>BigFather Rengar</t>
   </si>
   <si>
-    <t>MyDogaN</t>
-  </si>
-  <si>
-    <t>DUO_SUPPORT</t>
+    <t>19 fotsiny adc</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -564,19 +564,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.352278870698461</v>
+        <v>6.52303547698906</v>
       </c>
       <c r="C5" t="n">
-        <v>13452.8</v>
+        <v>11729.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03998785955724499</v>
+        <v>0.06017257123245481</v>
       </c>
       <c r="E5" t="n">
-        <v>73.40000000000001</v>
+        <v>106.8</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2</v>
+        <v>284</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -585,13 +585,13 @@
         <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1626965738779845</v>
+        <v>0.1657745401248908</v>
       </c>
       <c r="J5" t="n">
-        <v>14.6</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008076131122476515</v>
+        <v>0.007222150099747813</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -599,19 +599,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.901710291787398</v>
+        <v>3.790142606791837</v>
       </c>
       <c r="C6" t="n">
-        <v>4185.8</v>
+        <v>5451.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01349240180076153</v>
+        <v>0.06008874252245078</v>
       </c>
       <c r="E6" t="n">
-        <v>29.6</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>204.4</v>
+        <v>189.8</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -620,13 +620,13 @@
         <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09128055152368671</v>
+        <v>0.1326668137825705</v>
       </c>
       <c r="J6" t="n">
-        <v>18.6</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>0.008167217339014521</v>
+        <v>0.002312426436265864</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -47,25 +47,25 @@
     <t>Vision Point</t>
   </si>
   <si>
-    <t xml:space="preserve">Châllénger </t>
+    <t>Halter Penguen</t>
   </si>
   <si>
     <t>SOLO</t>
   </si>
   <si>
-    <t xml:space="preserve">Portgas D Åce </t>
-  </si>
-  <si>
-    <t>LS DUFFY</t>
-  </si>
-  <si>
-    <t>BigFather Rengar</t>
-  </si>
-  <si>
-    <t>19 fotsiny adc</t>
-  </si>
-  <si>
-    <t>NONE</t>
+    <t>Mrs Máster Yi</t>
+  </si>
+  <si>
+    <t>Negabrione</t>
+  </si>
+  <si>
+    <t>HornyCorn</t>
+  </si>
+  <si>
+    <t>DUO</t>
+  </si>
+  <si>
+    <t>MagusApex</t>
   </si>
 </sst>
 </file>
@@ -459,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.203383214053351</v>
+        <v>3.07100063734863</v>
       </c>
       <c r="C2" t="n">
-        <v>4923.6</v>
+        <v>4818.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01535458685751464</v>
+        <v>0.02179732313575526</v>
       </c>
       <c r="E2" t="n">
-        <v>23.6</v>
+        <v>34.2</v>
       </c>
       <c r="F2" t="n">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -480,13 +480,13 @@
         <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08197787898503578</v>
+        <v>0.1261950286806883</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0022121014964216</v>
+        <v>0.003059273422562141</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.775319622012229</v>
+        <v>3.833485927892299</v>
       </c>
       <c r="C3" t="n">
-        <v>3193.8</v>
+        <v>5897.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01634241245136187</v>
+        <v>0.02445485819541133</v>
       </c>
       <c r="E3" t="n">
-        <v>29.4</v>
+        <v>45.2</v>
       </c>
       <c r="F3" t="n">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -515,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02279043913285158</v>
+        <v>0.09318200287130592</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>8.6</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002445803224013341</v>
+        <v>0.005347130048487147</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -529,19 +529,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.58653314427508</v>
+        <v>7.829359333360753</v>
       </c>
       <c r="C4" t="n">
-        <v>8017.8</v>
+        <v>16197.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03247285569866215</v>
+        <v>0.08013202994381621</v>
       </c>
       <c r="E4" t="n">
-        <v>56.2</v>
+        <v>165</v>
       </c>
       <c r="F4" t="n">
-        <v>187.4</v>
+        <v>430.2</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -550,13 +550,13 @@
         <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1066721808657292</v>
+        <v>0.2063731471137939</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>19.6</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003094384707287933</v>
+        <v>0.009152606233594018</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -564,34 +564,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.52303547698906</v>
+        <v>5.64523200920185</v>
       </c>
       <c r="C5" t="n">
-        <v>11729.4</v>
+        <v>8954.200000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06017257123245481</v>
+        <v>0.02991473419815112</v>
       </c>
       <c r="E5" t="n">
-        <v>106.8</v>
+        <v>49.4</v>
       </c>
       <c r="F5" t="n">
-        <v>284</v>
+        <v>610.2</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1657745401248908</v>
+        <v>0.3863354585100985</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>15.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007222150099747813</v>
+        <v>0.009556019006126104</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -599,34 +599,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.790142606791837</v>
+        <v>3.652230980643308</v>
       </c>
       <c r="C6" t="n">
-        <v>5451.2</v>
+        <v>5297.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06008874252245078</v>
+        <v>0.03020442432290065</v>
       </c>
       <c r="E6" t="n">
-        <v>87.40000000000001</v>
+        <v>45.8</v>
       </c>
       <c r="F6" t="n">
-        <v>189.8</v>
+        <v>292</v>
       </c>
       <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
       <c r="I6" t="n">
-        <v>0.1326668137825705</v>
+        <v>0.1968040937674682</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002312426436265864</v>
+        <v>0.00344223402841273</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -47,25 +47,25 @@
     <t>Vision Point</t>
   </si>
   <si>
-    <t>Halter Penguen</t>
-  </si>
-  <si>
-    <t>SOLO</t>
-  </si>
-  <si>
-    <t>Mrs Máster Yi</t>
-  </si>
-  <si>
-    <t>Negabrione</t>
-  </si>
-  <si>
-    <t>HornyCorn</t>
-  </si>
-  <si>
-    <t>DUO</t>
-  </si>
-  <si>
-    <t>MagusApex</t>
+    <t>MyDogaN</t>
+  </si>
+  <si>
+    <t>DUO_SUPPORT</t>
+  </si>
+  <si>
+    <t>Mr Kayn</t>
+  </si>
+  <si>
+    <t>Booogeyman</t>
+  </si>
+  <si>
+    <t>DUO_CARRY</t>
+  </si>
+  <si>
+    <t>Shiller</t>
+  </si>
+  <si>
+    <t>Poppy Gods</t>
   </si>
 </sst>
 </file>
@@ -459,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.07100063734863</v>
+        <v>1.901710291787398</v>
       </c>
       <c r="C2" t="n">
-        <v>4818.4</v>
+        <v>4185.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02179732313575526</v>
+        <v>0.01349240180076153</v>
       </c>
       <c r="E2" t="n">
-        <v>34.2</v>
+        <v>29.6</v>
       </c>
       <c r="F2" t="n">
-        <v>198</v>
+        <v>204.4</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -480,13 +480,13 @@
         <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1261950286806883</v>
+        <v>0.09128055152368671</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>18.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003059273422562141</v>
+        <v>0.008167217339014521</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.833485927892299</v>
+        <v>2.791646791513082</v>
       </c>
       <c r="C3" t="n">
-        <v>5897.2</v>
+        <v>3890.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02445485819541133</v>
+        <v>0.01949175076877424</v>
       </c>
       <c r="E3" t="n">
-        <v>45.2</v>
+        <v>28.2</v>
       </c>
       <c r="F3" t="n">
-        <v>142</v>
+        <v>221.4</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -515,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09318200287130592</v>
+        <v>0.1749684198889241</v>
       </c>
       <c r="J3" t="n">
-        <v>8.6</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005347130048487147</v>
+        <v>0.002463335941977546</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -529,34 +529,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.829359333360753</v>
+        <v>2.416763848396501</v>
       </c>
       <c r="C4" t="n">
-        <v>16197.8</v>
+        <v>3315.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08013202994381621</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="E4" t="n">
-        <v>165</v>
+        <v>22.4</v>
       </c>
       <c r="F4" t="n">
-        <v>430.2</v>
+        <v>40.6</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2063731471137939</v>
+        <v>0.02959183673469388</v>
       </c>
       <c r="J4" t="n">
-        <v>19.6</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.009152606233594018</v>
+        <v>0.002478134110787172</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -564,34 +564,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.64523200920185</v>
+        <v>9.48417331160671</v>
       </c>
       <c r="C5" t="n">
-        <v>8954.200000000001</v>
+        <v>15096.8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02991473419815112</v>
+        <v>0.04245232838056302</v>
       </c>
       <c r="E5" t="n">
-        <v>49.4</v>
+        <v>67</v>
       </c>
       <c r="F5" t="n">
-        <v>610.2</v>
+        <v>161.6</v>
       </c>
       <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" t="n">
-        <v>0.3863354585100985</v>
+        <v>0.1032920977440951</v>
       </c>
       <c r="J5" t="n">
-        <v>15.2</v>
+        <v>5.4</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009556019006126104</v>
+        <v>0.003379839878639451</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -599,34 +599,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.652230980643308</v>
+        <v>1.249264705882353</v>
       </c>
       <c r="C6" t="n">
-        <v>5297.6</v>
+        <v>2038.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03020442432290065</v>
+        <v>0.01409313725490196</v>
       </c>
       <c r="E6" t="n">
-        <v>45.8</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>292</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1968040937674682</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="J6" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00344223402841273</v>
+        <v>0.001838235294117647</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -47,25 +47,22 @@
     <t>Vision Point</t>
   </si>
   <si>
-    <t>Halter Penguen</t>
-  </si>
-  <si>
     <t>SOLO</t>
   </si>
   <si>
-    <t>Mrs Máster Yi</t>
-  </si>
-  <si>
-    <t>Negabrione</t>
-  </si>
-  <si>
-    <t>HornyCorn</t>
-  </si>
-  <si>
-    <t>DUO</t>
-  </si>
-  <si>
-    <t>MagusApex</t>
+    <t xml:space="preserve">Portgas D Åce </t>
+  </si>
+  <si>
+    <t>LS DUFFY</t>
+  </si>
+  <si>
+    <t>BigFather Rengar</t>
+  </si>
+  <si>
+    <t>19 fotsiny adc</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -459,34 +456,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.07100063734863</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4818.4</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02179732313575526</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>198</v>
-      </c>
-      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" t="n">
-        <v>0.1261950286806883</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003059273422562141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -494,34 +489,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.833485927892299</v>
+        <v>1.775319622012229</v>
       </c>
       <c r="C3" t="n">
-        <v>5897.2</v>
+        <v>3193.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02445485819541133</v>
+        <v>0.01634241245136187</v>
       </c>
       <c r="E3" t="n">
-        <v>45.2</v>
+        <v>29.4</v>
       </c>
       <c r="F3" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09318200287130592</v>
+        <v>0.02279043913285158</v>
       </c>
       <c r="J3" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005347130048487147</v>
+        <v>0.002445803224013341</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -529,34 +524,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.829359333360753</v>
+        <v>7.410958116892823</v>
       </c>
       <c r="C4" t="n">
-        <v>16197.8</v>
+        <v>13175.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08013202994381621</v>
+        <v>0.05164043510720542</v>
       </c>
       <c r="E4" t="n">
-        <v>165</v>
+        <v>91.2</v>
       </c>
       <c r="F4" t="n">
-        <v>430.2</v>
+        <v>278.8</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2063731471137939</v>
+        <v>0.1567269453783251</v>
       </c>
       <c r="J4" t="n">
-        <v>19.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.009152606233594018</v>
+        <v>0.004627791059971394</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -564,34 +559,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.64523200920185</v>
+        <v>6.474714026753915</v>
       </c>
       <c r="C5" t="n">
-        <v>8954.200000000001</v>
+        <v>8602</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02991473419815112</v>
+        <v>0.04634044514716931</v>
       </c>
       <c r="E5" t="n">
-        <v>49.4</v>
+        <v>61.2</v>
       </c>
       <c r="F5" t="n">
-        <v>610.2</v>
+        <v>328.6</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3863354585100985</v>
+        <v>0.2473481266503256</v>
       </c>
       <c r="J5" t="n">
-        <v>15.2</v>
+        <v>9.6</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009556019006126104</v>
+        <v>0.007220967752454279</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -599,34 +594,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.652230980643308</v>
+        <v>2.383936531395372</v>
       </c>
       <c r="C6" t="n">
-        <v>5297.6</v>
+        <v>3065.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03020442432290065</v>
+        <v>0.01186318291444714</v>
       </c>
       <c r="E6" t="n">
-        <v>45.8</v>
+        <v>14.2</v>
       </c>
       <c r="F6" t="n">
-        <v>292</v>
+        <v>318.2</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1968040937674682</v>
+        <v>0.2513900194630072</v>
       </c>
       <c r="J6" t="n">
-        <v>5.4</v>
+        <v>11.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00344223402841273</v>
+        <v>0.008399989526632901</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -524,19 +524,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.410958116892823</v>
+        <v>11.47138019017781</v>
       </c>
       <c r="C4" t="n">
-        <v>13175.2</v>
+        <v>16820.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05164043510720542</v>
+        <v>0.1148893923255633</v>
       </c>
       <c r="E4" t="n">
-        <v>91.2</v>
+        <v>165</v>
       </c>
       <c r="F4" t="n">
-        <v>278.8</v>
+        <v>373.4</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1567269453783251</v>
+        <v>0.2602785146347409</v>
       </c>
       <c r="J4" t="n">
-        <v>8.199999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004627791059971394</v>
+        <v>0.0102324902907245</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -559,19 +559,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.474714026753915</v>
+        <v>6.506973090568204</v>
       </c>
       <c r="C5" t="n">
-        <v>8602</v>
+        <v>9534.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04634044514716931</v>
+        <v>0.04526183093699399</v>
       </c>
       <c r="E5" t="n">
-        <v>61.2</v>
+        <v>68.8</v>
       </c>
       <c r="F5" t="n">
-        <v>328.6</v>
+        <v>370.2</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -580,13 +580,13 @@
         <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2473481266503256</v>
+        <v>0.2520432498535652</v>
       </c>
       <c r="J5" t="n">
-        <v>9.6</v>
+        <v>12.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007220967752454279</v>
+        <v>0.008581153657621576</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -47,25 +47,25 @@
     <t>Vision Point</t>
   </si>
   <si>
+    <t>Booogeyman</t>
+  </si>
+  <si>
+    <t>DUO_CARRY</t>
+  </si>
+  <si>
+    <t>Shiller</t>
+  </si>
+  <si>
+    <t>Poppy Gods</t>
+  </si>
+  <si>
+    <t>Ithryn L</t>
+  </si>
+  <si>
     <t>MyDogaN</t>
   </si>
   <si>
     <t>DUO_SUPPORT</t>
-  </si>
-  <si>
-    <t>Mr Kayn</t>
-  </si>
-  <si>
-    <t>Booogeyman</t>
-  </si>
-  <si>
-    <t>DUO_CARRY</t>
-  </si>
-  <si>
-    <t>Shiller</t>
-  </si>
-  <si>
-    <t>Poppy Gods</t>
   </si>
 </sst>
 </file>
@@ -459,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.901710291787398</v>
+        <v>2.416763848396501</v>
       </c>
       <c r="C2" t="n">
-        <v>4185.8</v>
+        <v>3315.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01349240180076153</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="E2" t="n">
-        <v>29.6</v>
+        <v>22.4</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4</v>
+        <v>40.6</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -480,13 +480,13 @@
         <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09128055152368671</v>
+        <v>0.02959183673469388</v>
       </c>
       <c r="J2" t="n">
-        <v>18.6</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008167217339014521</v>
+        <v>0.002478134110787172</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.791646791513082</v>
+        <v>9.48417331160671</v>
       </c>
       <c r="C3" t="n">
-        <v>3890.6</v>
+        <v>15096.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01949175076877424</v>
+        <v>0.04245232838056302</v>
       </c>
       <c r="E3" t="n">
-        <v>28.2</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>221.4</v>
+        <v>161.6</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -515,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1749684198889241</v>
+        <v>0.1032920977440951</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002463335941977546</v>
+        <v>0.003379839878639451</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -529,34 +529,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.416763848396501</v>
+        <v>1.249264705882353</v>
       </c>
       <c r="C4" t="n">
-        <v>3315.8</v>
+        <v>2038.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0163265306122449</v>
+        <v>0.01409313725490196</v>
       </c>
       <c r="E4" t="n">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
-        <v>40.6</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02959183673469388</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002478134110787172</v>
+        <v>0.001838235294117647</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -564,34 +564,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.48417331160671</v>
+        <v>6.710934922957702</v>
       </c>
       <c r="C5" t="n">
-        <v>15096.8</v>
+        <v>11434.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04245232838056302</v>
+        <v>0.0404788960127518</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>62.2</v>
       </c>
       <c r="F5" t="n">
-        <v>161.6</v>
+        <v>338.2</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1032920977440951</v>
+        <v>0.2035710766994756</v>
       </c>
       <c r="J5" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003379839878639451</v>
+        <v>0.004878862988729487</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -599,34 +599,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.249264705882353</v>
+        <v>1.901710291787398</v>
       </c>
       <c r="C6" t="n">
-        <v>2038.8</v>
+        <v>4185.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01409313725490196</v>
+        <v>0.01349240180076153</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>29.6</v>
       </c>
       <c r="F6" t="n">
-        <v>138</v>
+        <v>204.4</v>
       </c>
       <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
       <c r="I6" t="n">
-        <v>0.08455882352941177</v>
+        <v>0.09128055152368671</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>18.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001838235294117647</v>
+        <v>0.008167217339014521</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -47,22 +47,43 @@
     <t>Vision Point</t>
   </si>
   <si>
+    <t>regAssist</t>
+  </si>
+  <si>
+    <t>regDeaths</t>
+  </si>
+  <si>
+    <t>regKills</t>
+  </si>
+  <si>
+    <t>regTimeCCingOthers</t>
+  </si>
+  <si>
+    <t>regTotalDamageDealtToChampions</t>
+  </si>
+  <si>
+    <t>regVisionScore</t>
+  </si>
+  <si>
+    <t>Halter Penguen</t>
+  </si>
+  <si>
     <t>SOLO</t>
   </si>
   <si>
-    <t xml:space="preserve">Portgas D Åce </t>
-  </si>
-  <si>
-    <t>LS DUFFY</t>
-  </si>
-  <si>
-    <t>BigFather Rengar</t>
-  </si>
-  <si>
-    <t>19 fotsiny adc</t>
+    <t>Mrs Máster Yi</t>
+  </si>
+  <si>
+    <t>Negabrione</t>
+  </si>
+  <si>
+    <t>Rhazes</t>
   </si>
   <si>
     <t>NONE</t>
+  </si>
+  <si>
+    <t>Legionnaire</t>
   </si>
 </sst>
 </file>
@@ -411,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,7 +440,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,178 +471,288 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.07100063734863</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4818.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.02179732313575526</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.1261950286806883</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.003059273422562141</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4818.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.775319622012229</v>
+        <v>3.401661721068249</v>
       </c>
       <c r="C3" t="n">
-        <v>3193.8</v>
+        <v>5731.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01634241245136187</v>
+        <v>0.01946587537091988</v>
       </c>
       <c r="E3" t="n">
-        <v>29.4</v>
+        <v>32.8</v>
       </c>
       <c r="F3" t="n">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02279043913285158</v>
+        <v>0.05637982195845698</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002445803224013341</v>
+        <v>0.002017804154302671</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5731.8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.47138019017781</v>
+        <v>5.051184931793103</v>
       </c>
       <c r="C4" t="n">
-        <v>16820.8</v>
+        <v>10365</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1148893923255633</v>
+        <v>0.04676938705455664</v>
       </c>
       <c r="E4" t="n">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
-        <v>373.4</v>
+        <v>510.6</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2602785146347409</v>
+        <v>0.263353030243158</v>
       </c>
       <c r="J4" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01043172921424848</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O4" t="n">
         <v>15.4</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.0102324902907245</v>
+      <c r="P4" t="n">
+        <v>10365</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>20.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.506973090568204</v>
+        <v>6.964295310237989</v>
       </c>
       <c r="C5" t="n">
-        <v>9534.4</v>
+        <v>14008.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04526183093699399</v>
+        <v>0.01772881186533461</v>
       </c>
       <c r="E5" t="n">
-        <v>68.8</v>
+        <v>37.4</v>
       </c>
       <c r="F5" t="n">
-        <v>370.2</v>
+        <v>294.8</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2520432498535652</v>
+        <v>0.1511437556030386</v>
       </c>
       <c r="J5" t="n">
-        <v>12.8</v>
+        <v>11.6</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008581153657621576</v>
+        <v>0.006184842200486853</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>14008.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>11.6</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.383936531395372</v>
+        <v>3.492262232954012</v>
       </c>
       <c r="C6" t="n">
-        <v>3065.4</v>
+        <v>6874.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01186318291444714</v>
+        <v>0.02960201155971191</v>
       </c>
       <c r="E6" t="n">
-        <v>14.2</v>
+        <v>60.4</v>
       </c>
       <c r="F6" t="n">
-        <v>318.2</v>
+        <v>251</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2513900194630072</v>
+        <v>0.1395292372567488</v>
       </c>
       <c r="J6" t="n">
-        <v>11.8</v>
+        <v>7.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.008399989526632901</v>
+        <v>0.00399634160439429</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6874.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -65,25 +65,25 @@
     <t>regVisionScore</t>
   </si>
   <si>
-    <t>Halter Penguen</t>
-  </si>
-  <si>
-    <t>SOLO</t>
-  </si>
-  <si>
-    <t>Mrs Máster Yi</t>
-  </si>
-  <si>
-    <t>Negabrione</t>
-  </si>
-  <si>
-    <t>Rhazes</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>Legionnaire</t>
+    <t>MyDogaN</t>
+  </si>
+  <si>
+    <t>DUO_SUPPORT</t>
+  </si>
+  <si>
+    <t>Mr Kayn</t>
+  </si>
+  <si>
+    <t>Booogeyman</t>
+  </si>
+  <si>
+    <t>DUO_CARRY</t>
+  </si>
+  <si>
+    <t>Shiller</t>
+  </si>
+  <si>
+    <t>Poppy Gods</t>
   </si>
 </sst>
 </file>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.07100063734863</v>
+        <v>1.901710291787398</v>
       </c>
       <c r="C2" t="n">
-        <v>4818.4</v>
+        <v>4185.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02179732313575526</v>
+        <v>0.01349240180076153</v>
       </c>
       <c r="E2" t="n">
-        <v>34.2</v>
+        <v>29.6</v>
       </c>
       <c r="F2" t="n">
-        <v>198</v>
+        <v>204.4</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -516,31 +516,31 @@
         <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1261950286806883</v>
+        <v>0.09128055152368671</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>18.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003059273422562141</v>
+        <v>0.008167217339014521</v>
       </c>
       <c r="L2" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>4818.4</v>
+        <v>4185.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.8</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -548,19 +548,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.401661721068249</v>
+        <v>2.791646791513082</v>
       </c>
       <c r="C3" t="n">
-        <v>5731.8</v>
+        <v>3890.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01946587537091988</v>
+        <v>0.01949175076877424</v>
       </c>
       <c r="E3" t="n">
-        <v>32.8</v>
+        <v>28.2</v>
       </c>
       <c r="F3" t="n">
-        <v>95</v>
+        <v>221.4</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -569,31 +569,31 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05637982195845698</v>
+        <v>0.1749684198889241</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002017804154302671</v>
+        <v>0.002463335941977546</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="P3" t="n">
-        <v>5731.8</v>
+        <v>3890.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -601,52 +601,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.051184931793103</v>
+        <v>2.416763848396501</v>
       </c>
       <c r="C4" t="n">
-        <v>10365</v>
+        <v>3315.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04676938705455664</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>22.4</v>
       </c>
       <c r="F4" t="n">
-        <v>510.6</v>
+        <v>40.6</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>0.263353030243158</v>
+        <v>0.02959183673469388</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01043172921424848</v>
+        <v>0.002478134110787172</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="M4" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="O4" t="n">
-        <v>15.4</v>
+        <v>3.8</v>
       </c>
       <c r="P4" t="n">
-        <v>10365</v>
+        <v>3315.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,52 +654,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.964295310237989</v>
+        <v>7.526515336917045</v>
       </c>
       <c r="C5" t="n">
-        <v>14008.6</v>
+        <v>12752.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01772881186533461</v>
+        <v>0.04081966133960498</v>
       </c>
       <c r="E5" t="n">
-        <v>37.4</v>
+        <v>72.8</v>
       </c>
       <c r="F5" t="n">
-        <v>294.8</v>
+        <v>209.8</v>
       </c>
       <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" t="n">
-        <v>0.1511437556030386</v>
+        <v>0.1137729726188463</v>
       </c>
       <c r="J5" t="n">
-        <v>11.6</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006184842200486853</v>
+        <v>0.003974587084214064</v>
       </c>
       <c r="L5" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N5" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>11.6</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>14008.6</v>
+        <v>12752.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,52 +707,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.492262232954012</v>
+        <v>1.249264705882353</v>
       </c>
       <c r="C6" t="n">
-        <v>6874.2</v>
+        <v>2038.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02960201155971191</v>
+        <v>0.01409313725490196</v>
       </c>
       <c r="E6" t="n">
-        <v>60.4</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1395292372567488</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="J6" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00399634160439429</v>
+        <v>0.001838235294117647</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="N6" t="n">
         <v>1.2</v>
       </c>
       <c r="O6" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>6874.2</v>
+        <v>2038.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -65,25 +65,25 @@
     <t>regVisionScore</t>
   </si>
   <si>
-    <t>MyDogaN</t>
-  </si>
-  <si>
-    <t>DUO_SUPPORT</t>
-  </si>
-  <si>
-    <t>Mr Kayn</t>
-  </si>
-  <si>
-    <t>Booogeyman</t>
+    <t>Inuwâ Dân X</t>
+  </si>
+  <si>
+    <t>DUO</t>
+  </si>
+  <si>
+    <t>Takizawà</t>
   </si>
   <si>
     <t>DUO_CARRY</t>
   </si>
   <si>
-    <t>Shiller</t>
-  </si>
-  <si>
-    <t>Poppy Gods</t>
+    <t>1against9 L9</t>
+  </si>
+  <si>
+    <t>Mr F Scofield</t>
+  </si>
+  <si>
+    <t>atkı</t>
   </si>
 </sst>
 </file>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.901710291787398</v>
+        <v>5.552368248186704</v>
       </c>
       <c r="C2" t="n">
-        <v>4185.8</v>
+        <v>13156.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01349240180076153</v>
+        <v>0.03811254470716262</v>
       </c>
       <c r="E2" t="n">
-        <v>29.6</v>
+        <v>92.2</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4</v>
+        <v>208.8</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -516,31 +516,31 @@
         <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09128055152368671</v>
+        <v>0.08970024567781631</v>
       </c>
       <c r="J2" t="n">
-        <v>18.6</v>
+        <v>10.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008167217339014521</v>
+        <v>0.0041437734423764</v>
       </c>
       <c r="L2" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>15.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4185.8</v>
+        <v>13156.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>18.6</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -548,52 +548,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.791646791513082</v>
+        <v>8.640537996803857</v>
       </c>
       <c r="C3" t="n">
-        <v>3890.6</v>
+        <v>19508.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01949175076877424</v>
+        <v>0.06836728990692152</v>
       </c>
       <c r="E3" t="n">
-        <v>28.2</v>
+        <v>110.8</v>
       </c>
       <c r="F3" t="n">
-        <v>221.4</v>
+        <v>342.8</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1749684198889241</v>
+        <v>0.1609056249067745</v>
       </c>
       <c r="J3" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.008901090469941059</v>
+      </c>
+      <c r="L3" t="n">
         <v>3.2</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.002463335941977546</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.8</v>
-      </c>
       <c r="M3" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>7.6</v>
       </c>
       <c r="O3" t="n">
-        <v>5.6</v>
+        <v>14</v>
       </c>
       <c r="P3" t="n">
-        <v>3890.6</v>
+        <v>19508.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.2</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -601,52 +601,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.416763848396501</v>
+        <v>4.958948577935138</v>
       </c>
       <c r="C4" t="n">
-        <v>3315.8</v>
+        <v>7422.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0163265306122449</v>
+        <v>0.05297472115560431</v>
       </c>
       <c r="E4" t="n">
-        <v>22.4</v>
+        <v>75.8</v>
       </c>
       <c r="F4" t="n">
-        <v>40.6</v>
+        <v>343.6</v>
       </c>
       <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" t="n">
-        <v>0.02959183673469388</v>
+        <v>0.2438613715321066</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002478134110787172</v>
+        <v>0.003429869180006317</v>
       </c>
       <c r="L4" t="n">
         <v>1.8</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3315.8</v>
+        <v>7422.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,52 +654,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.526515336917045</v>
+        <v>7.578175204713018</v>
       </c>
       <c r="C5" t="n">
-        <v>12752.4</v>
+        <v>13639.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04081966133960498</v>
+        <v>0.07927726354393795</v>
       </c>
       <c r="E5" t="n">
-        <v>72.8</v>
+        <v>145</v>
       </c>
       <c r="F5" t="n">
-        <v>209.8</v>
+        <v>588.4</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1137729726188463</v>
+        <v>0.3224582848240293</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003974587084214064</v>
+        <v>0.006465115763260081</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="P5" t="n">
-        <v>12752.4</v>
+        <v>13639.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,52 +707,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.249264705882353</v>
+        <v>4.718499124373624</v>
       </c>
       <c r="C6" t="n">
-        <v>2038.8</v>
+        <v>6698</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01409313725490196</v>
+        <v>0.03749183615672267</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>52.4</v>
       </c>
       <c r="F6" t="n">
-        <v>138</v>
+        <v>260.8</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08455882352941177</v>
+        <v>0.19180321236396</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>7.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001838235294117647</v>
+        <v>0.005053780220669405</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>11.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2038.8</v>
+        <v>6698</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lolLive.xlsx
+++ b/lolMineSite/results/api/lolLive.xlsx
@@ -65,25 +65,25 @@
     <t>regVisionScore</t>
   </si>
   <si>
-    <t>Inuwâ Dân X</t>
-  </si>
-  <si>
-    <t>DUO</t>
-  </si>
-  <si>
-    <t>Takizawà</t>
+    <t>MyDogaN</t>
+  </si>
+  <si>
+    <t>DUO_SUPPORT</t>
+  </si>
+  <si>
+    <t>Mr Kayn</t>
+  </si>
+  <si>
+    <t>Booogeyman</t>
   </si>
   <si>
     <t>DUO_CARRY</t>
   </si>
   <si>
-    <t>1against9 L9</t>
-  </si>
-  <si>
-    <t>Mr F Scofield</t>
-  </si>
-  <si>
-    <t>atkı</t>
+    <t>Shiller</t>
+  </si>
+  <si>
+    <t>Poppy Gods</t>
   </si>
 </sst>
 </file>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.552368248186704</v>
+        <v>1.901710291787398</v>
       </c>
       <c r="C2" t="n">
-        <v>13156.8</v>
+        <v>4185.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03811254470716262</v>
+        <v>0.01349240180076153</v>
       </c>
       <c r="E2" t="n">
-        <v>92.2</v>
+        <v>29.6</v>
       </c>
       <c r="F2" t="n">
-        <v>208.8</v>
+        <v>204.4</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -516,31 +516,31 @@
         <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08970024567781631</v>
+        <v>0.09128055152368671</v>
       </c>
       <c r="J2" t="n">
-        <v>10.2</v>
+        <v>18.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0041437734423764</v>
+        <v>0.008167217339014521</v>
       </c>
       <c r="L2" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="M2" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>15.2</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>13156.8</v>
+        <v>4185.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.2</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -548,52 +548,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.640537996803857</v>
+        <v>2.791646791513082</v>
       </c>
       <c r="C3" t="n">
-        <v>19508.6</v>
+        <v>3890.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06836728990692152</v>
+        <v>0.01949175076877424</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8</v>
+        <v>28.2</v>
       </c>
       <c r="F3" t="n">
-        <v>342.8</v>
+        <v>221.4</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1609056249067745</v>
+        <v>0.1749684198889241</v>
       </c>
       <c r="J3" t="n">
-        <v>19.2</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008901090469941059</v>
+        <v>0.002463335941977546</v>
       </c>
       <c r="L3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3890.6</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>19508.6</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>19.2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -601,52 +601,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.958948577935138</v>
+        <v>2.416763848396501</v>
       </c>
       <c r="C4" t="n">
-        <v>7422.2</v>
+        <v>3315.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05297472115560431</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="E4" t="n">
-        <v>75.8</v>
+        <v>22.4</v>
       </c>
       <c r="F4" t="n">
-        <v>343.6</v>
+        <v>40.6</v>
       </c>
       <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" t="n">
-        <v>0.2438613715321066</v>
+        <v>0.02959183673469388</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003429869180006317</v>
+        <v>0.002478134110787172</v>
       </c>
       <c r="L4" t="n">
         <v>1.8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="P4" t="n">
-        <v>7422.2</v>
+        <v>3315.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,52 +654,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.578175204713018</v>
+        <v>7.526515336917045</v>
       </c>
       <c r="C5" t="n">
-        <v>13639.6</v>
+        <v>12752.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07927726354393795</v>
+        <v>0.04081966133960498</v>
       </c>
       <c r="E5" t="n">
-        <v>145</v>
+        <v>72.8</v>
       </c>
       <c r="F5" t="n">
-        <v>588.4</v>
+        <v>209.8</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3224582848240293</v>
+        <v>0.1137729726188463</v>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006465115763260081</v>
+        <v>0.003974587084214064</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>6.2</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>13639.6</v>
+        <v>12752.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,52 +707,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.718499124373624</v>
+        <v>1.249264705882353</v>
       </c>
       <c r="C6" t="n">
-        <v>6698</v>
+        <v>2038.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03749183615672267</v>
+        <v>0.01409313725490196</v>
       </c>
       <c r="E6" t="n">
-        <v>52.4</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>260.8</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>0.19180321236396</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="J6" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005053780220669405</v>
+        <v>0.001838235294117647</v>
       </c>
       <c r="L6" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="O6" t="n">
-        <v>11.4</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>6698</v>
+        <v>2038.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
